--- a/Sourecode/Nippon.Angualar/Service.Data/_Template/NIPPON_4SSTemplate.xlsx
+++ b/Sourecode/Nippon.Angualar/Service.Data/_Template/NIPPON_4SSTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Detail" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Thang</t>
   </si>
@@ -154,35 +154,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -193,6 +193,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -241,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,7 +279,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,7 +491,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,53 +509,53 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -564,12 +567,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
